--- a/24_sum/PRJ301/On tap li thuyet.xlsx
+++ b/24_sum/PRJ301/On tap li thuyet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP  overview and web.xml" sheetId="1" r:id="rId1"/>
@@ -3952,8 +3952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4162,8 +4162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4414,7 +4414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -5026,8 +5026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
